--- a/Back-End/estudiantes_seccion_2.xlsx
+++ b/Back-End/estudiantes_seccion_2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Primer Nombre</t>
   </si>
@@ -32,6 +32,39 @@
   </si>
   <si>
     <t>Hora</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>Cáceres</t>
+  </si>
+  <si>
+    <t>20230001</t>
+  </si>
+  <si>
+    <t>Introducción a la Informática</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>201905678</t>
   </si>
 </sst>
 </file>
@@ -408,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="8" width="15" customWidth="1"/>
@@ -440,6 +473,58 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
